--- a/DIV5_Analysis/ComparedResults/CCCTA_Comparison.xlsx
+++ b/DIV5_Analysis/ComparedResults/CCCTA_Comparison.xlsx
@@ -41,10 +41,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="00006100"/>
+      <color rgb="009C0006"/>
     </font>
     <font>
-      <color rgb="009C0006"/>
+      <color rgb="00006100"/>
     </font>
   </fonts>
   <fills count="5">
@@ -62,14 +62,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -478,9 +478,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -518,17 +518,17 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1548</v>
+        <v>1947</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1624</v>
+        <v>1825</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>76</v>
+        <v>-122</v>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -539,17 +539,17 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1872.29</v>
+        <v>2013.358</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1956.566</v>
+        <v>1790.315</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>84.27599999999984</v>
+        <v>-223.0429999999997</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -563,12 +563,12 @@
         <v>26</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Decreased</t>
         </is>
@@ -602,17 +602,17 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>57784.88036</v>
+        <v>62565.18375773182</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>60444.40506</v>
+        <v>56885.13332240602</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>2659.524700000002</v>
+        <v>-5680.0504353258</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,59 +635,76 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>Operator Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Partner</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Operator Name</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Partner</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>SILVA, PAUL</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>Added</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>MARSHALL, WILLIAM</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>SILVA, PAUL</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>FUENTES, PEDRO</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>MATUECCI, MATT</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
         </is>
       </c>
     </row>
@@ -702,7 +719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,13 +762,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>16</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -761,13 +778,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>-9</v>
+        <v>89</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="4">
@@ -777,13 +794,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>430</v>
+        <v>573</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -793,13 +810,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>76</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>-14</v>
+        <v>90</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-48</v>
       </c>
     </row>
     <row r="6">
@@ -809,13 +826,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="7">
@@ -825,13 +842,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>4</v>
+        <v>98</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -841,125 +858,109 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>69</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>MADE EAZY LLC</t>
+          <t>MONAI&amp;SON'S LLC</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>12</v>
+        <v>72</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>MONAI&amp;SON'S LLC</t>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>85</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
+          <t>QUICK RIDES CA</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>QUICK RIDES CA</t>
+          <t>REM SOLUTIONS LLC</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>-5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>REM SOLUTIONS LLC</t>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>-6</v>
+        <v>405</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+          <t>TRANSIT LTM LLC</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>274</v>
+        <v>95</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>232</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>TRANSIT LTM LLC</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>66</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,13 +1017,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>89.92</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>70.64</v>
+        <v>102.13</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>19.28</v>
+        <v>-11.73</v>
       </c>
     </row>
     <row r="3">
@@ -1032,13 +1033,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>93.90000000000001</v>
+        <v>94.25</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>93.38</v>
+        <v>101.1</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.52</v>
+        <v>-6.85</v>
       </c>
     </row>
     <row r="4">
@@ -1048,13 +1049,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>510.51</v>
+        <v>548.38</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>562.25</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>-51.74</v>
+        <v>568.33</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-19.95</v>
       </c>
     </row>
     <row r="5">
@@ -1064,13 +1065,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>78.37</v>
+        <v>37.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>88.98</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>-10.61</v>
+        <v>105.7</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-67.97</v>
       </c>
     </row>
     <row r="6">
@@ -1080,13 +1081,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>108.93</v>
+        <v>5.52</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>87.73</v>
+        <v>22.48</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.2</v>
+        <v>-16.96</v>
       </c>
     </row>
     <row r="7">
@@ -1096,13 +1097,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>95.8</v>
+        <v>109.3</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>94.45</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>1.35</v>
+        <v>99.7</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>9.6</v>
       </c>
     </row>
     <row r="8">
@@ -1112,125 +1113,109 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>87.09999999999999</v>
+        <v>46.33</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>19.51</v>
+        <v>85.7</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>67.59</v>
+        <v>-39.37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>MADE EAZY LLC</t>
+          <t>MONAI&amp;SON'S LLC</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>86.13</v>
+        <v>92.3</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>83.34</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>2.79</v>
+        <v>80.45</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>11.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>MONAI&amp;SON'S LLC</t>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>96.15000000000001</v>
+        <v>62.58</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>94.55</v>
+        <v>87.7</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.6</v>
+        <v>-25.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
+          <t>QUICK RIDES CA</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>67.55</v>
+        <v>202.68</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>79.53</v>
+        <v>169.72</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-11.98</v>
+        <v>32.96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>QUICK RIDES CA</t>
+          <t>REM SOLUTIONS LLC</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>156.28</v>
+        <v>125.55</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>148.59</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>7.69</v>
+        <v>87.55</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>REM SOLUTIONS LLC</t>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>65.37</v>
+        <v>276.45</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>75.42</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>-10.05</v>
+        <v>435.65</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-159.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+          <t>TRANSIT LTM LLC</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>331.65</v>
+        <v>98.83</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>286.17</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>45.48</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>TRANSIT LTM LLC</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>88.92</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>87.73999999999999</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1.18</v>
+        <v>67.13</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>31.7</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,13 +1272,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>463.58</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>126.42</v>
+        <v>615</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1303,10 +1288,10 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
@@ -1335,13 +1320,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>590</v>
+        <v>307.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>615</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-307.5</v>
       </c>
     </row>
     <row r="6">
@@ -1367,10 +1352,10 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0</v>
@@ -1383,42 +1368,42 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>295</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>295</v>
+        <v>615</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>MADE EAZY LLC</t>
+          <t>MONAI&amp;SON'S LLC</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
+        <v>615</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>MONAI&amp;SON'S LLC</t>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>0</v>
@@ -1427,14 +1412,14 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
+          <t>QUICK RIDES CA</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>0</v>
@@ -1443,14 +1428,14 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>QUICK RIDES CA</t>
+          <t>REM Solutions LLC</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>590</v>
+        <v>455</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>590</v>
+        <v>455</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>0</v>
@@ -1459,48 +1444,32 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>REM Solutions LLC</t>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>430</v>
+        <v>1070</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>0</v>
+        <v>2140</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1070</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+          <t>Transit LTM LLC</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1450</v>
+        <v>615</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1450</v>
+        <v>615</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Transit LTM LLC</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D15" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1541,93 +1510,93 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>45662</v>
+        <v>45761</v>
       </c>
       <c r="B2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>45666</v>
+        <v>45755</v>
       </c>
       <c r="B3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>45657</v>
+        <v>45762</v>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>45661</v>
+        <v>45757</v>
       </c>
       <c r="B5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>45663</v>
+        <v>45764</v>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>45667</v>
+        <v>45758</v>
       </c>
       <c r="B7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>45664</v>
+        <v>45763</v>
       </c>
       <c r="B8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>45659</v>
+        <v>45766</v>
       </c>
       <c r="B9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>45658</v>
+        <v>45756</v>
       </c>
       <c r="B10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>45660</v>
+        <v>45754</v>
       </c>
       <c r="B11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>45669</v>
+        <v>45767</v>
       </c>
       <c r="B12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>45668</v>
+        <v>45760</v>
       </c>
       <c r="B13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>45665</v>
+        <v>45759</v>
       </c>
       <c r="B14" s="4" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>45656</v>
+        <v>45765</v>
       </c>
       <c r="B15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>45654</v>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
+        <v>45750</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1635,9 +1604,9 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>45643</v>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
+        <v>45742</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1645,9 +1614,9 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
+        <v>45745</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1655,9 +1624,9 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
+        <v>45749</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1665,9 +1634,9 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>45647</v>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
+        <v>45743</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1675,9 +1644,9 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>45645</v>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
+        <v>45740</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1685,9 +1654,9 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>45646</v>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
+        <v>45748</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1695,9 +1664,9 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>45650</v>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
+        <v>45744</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1705,9 +1674,9 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>45653</v>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
+        <v>45747</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1715,9 +1684,9 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>45644</v>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
+        <v>45752</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1725,9 +1694,9 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
+        <v>45753</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1735,9 +1704,9 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
+        <v>45746</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1745,9 +1714,9 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
-        <v>45651</v>
-      </c>
-      <c r="B28" s="6" t="inlineStr">
+        <v>45751</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1755,9 +1724,9 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="n">
-        <v>45652</v>
-      </c>
-      <c r="B29" s="6" t="inlineStr">
+        <v>45741</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
